--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl11-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl11-Ccr3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.819052333333333</v>
+        <v>1.57077</v>
       </c>
       <c r="H2">
-        <v>5.457157</v>
+        <v>4.71231</v>
       </c>
       <c r="I2">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="J2">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N2">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O2">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P2">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q2">
-        <v>0.514138164194889</v>
+        <v>0.14078759151</v>
       </c>
       <c r="R2">
-        <v>4.627243477754001</v>
+        <v>1.26708832359</v>
       </c>
       <c r="S2">
-        <v>0.01334192723367833</v>
+        <v>0.01120744272725982</v>
       </c>
       <c r="T2">
-        <v>0.01334192723367833</v>
+        <v>0.01120744272725982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.819052333333333</v>
+        <v>1.57077</v>
       </c>
       <c r="H3">
-        <v>5.457157</v>
+        <v>4.71231</v>
       </c>
       <c r="I3">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="J3">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N3">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O3">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P3">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q3">
-        <v>0.5928734190401111</v>
+        <v>0.18362563095</v>
       </c>
       <c r="R3">
-        <v>5.335860771361</v>
+        <v>1.65263067855</v>
       </c>
       <c r="S3">
-        <v>0.01538511350932675</v>
+        <v>0.01461757900718755</v>
       </c>
       <c r="T3">
-        <v>0.01538511350932675</v>
+        <v>0.01461757900718755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>170.579399</v>
       </c>
       <c r="I4">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="J4">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N4">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O4">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P4">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q4">
-        <v>16.07089168431978</v>
+        <v>5.096324890856779</v>
       </c>
       <c r="R4">
-        <v>144.638025158878</v>
+        <v>45.86692401771101</v>
       </c>
       <c r="S4">
-        <v>0.4170409480655554</v>
+        <v>0.4056946263600867</v>
       </c>
       <c r="T4">
-        <v>0.4170409480655554</v>
+        <v>0.4056946263600867</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>170.579399</v>
       </c>
       <c r="I5">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="J5">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N5">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O5">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P5">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q5">
-        <v>18.53199229982522</v>
+        <v>6.647005347366112</v>
       </c>
       <c r="R5">
-        <v>166.787930698427</v>
+        <v>59.82304812629501</v>
       </c>
       <c r="S5">
-        <v>0.4809067094766998</v>
+        <v>0.5291370563229222</v>
       </c>
       <c r="T5">
-        <v>0.4809067094766999</v>
+        <v>0.5291370563229222</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.611504</v>
+        <v>0.9273763333333335</v>
       </c>
       <c r="H6">
-        <v>4.834512</v>
+        <v>2.782129</v>
       </c>
       <c r="I6">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="J6">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N6">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O6">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P6">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q6">
-        <v>0.4554765648960001</v>
+        <v>0.08312043163122224</v>
       </c>
       <c r="R6">
-        <v>4.099289084064001</v>
+        <v>0.7480838846810001</v>
       </c>
       <c r="S6">
-        <v>0.01181965395431077</v>
+        <v>0.006616829416432413</v>
       </c>
       <c r="T6">
-        <v>0.01181965395431077</v>
+        <v>0.006616829416432413</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.611504</v>
+        <v>0.9273763333333335</v>
       </c>
       <c r="H7">
-        <v>4.834512</v>
+        <v>2.782129</v>
       </c>
       <c r="I7">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="J7">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N7">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O7">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P7">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q7">
-        <v>0.525228366864</v>
+        <v>0.1084118389938889</v>
       </c>
       <c r="R7">
-        <v>4.727055301776</v>
+        <v>0.975706550945</v>
       </c>
       <c r="S7">
-        <v>0.01362971889615825</v>
+        <v>0.008630160253821947</v>
       </c>
       <c r="T7">
-        <v>0.01362971889615826</v>
+        <v>0.008630160253821947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.246467333333333</v>
+        <v>0.7810079999999999</v>
       </c>
       <c r="H8">
-        <v>3.739402</v>
+        <v>2.343024</v>
       </c>
       <c r="I8">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="J8">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N8">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O8">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P8">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q8">
-        <v>0.3523023580715556</v>
+        <v>0.07000148670399998</v>
       </c>
       <c r="R8">
-        <v>3.170721222644</v>
+        <v>0.630013380336</v>
       </c>
       <c r="S8">
-        <v>0.009142274884426307</v>
+        <v>0.005572491472037111</v>
       </c>
       <c r="T8">
-        <v>0.009142274884426307</v>
+        <v>0.005572491472037111</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.246467333333333</v>
+        <v>0.7810079999999999</v>
       </c>
       <c r="H9">
-        <v>3.739402</v>
+        <v>2.343024</v>
       </c>
       <c r="I9">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="J9">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N9">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O9">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P9">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q9">
-        <v>0.4062540346384445</v>
+        <v>0.09130113687999999</v>
       </c>
       <c r="R9">
-        <v>3.656286311746</v>
+        <v>0.8217102319199999</v>
       </c>
       <c r="S9">
-        <v>0.01054232528530945</v>
+        <v>0.007268057160020585</v>
       </c>
       <c r="T9">
-        <v>0.01054232528530945</v>
+        <v>0.007268057160020585</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.78513</v>
+        <v>0.6846153333333334</v>
       </c>
       <c r="H10">
-        <v>5.35539</v>
+        <v>2.053846</v>
       </c>
       <c r="I10">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="J10">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N10">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O10">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P10">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q10">
-        <v>0.5045503332866667</v>
+        <v>0.06136184412155556</v>
       </c>
       <c r="R10">
-        <v>4.54095299958</v>
+        <v>0.552256597094</v>
       </c>
       <c r="S10">
-        <v>0.01309312224075074</v>
+        <v>0.004884729870405738</v>
       </c>
       <c r="T10">
-        <v>0.01309312224075074</v>
+        <v>0.004884729870405738</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.78513</v>
+        <v>0.6846153333333334</v>
       </c>
       <c r="H11">
-        <v>5.35539</v>
+        <v>2.053846</v>
       </c>
       <c r="I11">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="J11">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N11">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O11">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P11">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q11">
-        <v>0.5818173051633333</v>
+        <v>0.08003267349222222</v>
       </c>
       <c r="R11">
-        <v>5.23635574647</v>
+        <v>0.72029406143</v>
       </c>
       <c r="S11">
-        <v>0.01509820645378416</v>
+        <v>0.006371027409825781</v>
       </c>
       <c r="T11">
-        <v>0.01509820645378416</v>
+        <v>0.006371027409825781</v>
       </c>
     </row>
   </sheetData>
